--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/15/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.036599999999996</v>
+        <v>9.129199999999996</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>5.500300000000001</v>
+        <v>5.405000000000005</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,13 +550,13 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.538800000000001</v>
+        <v>5.321100000000004</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.397199999999995</v>
+        <v>-7.328000000000003</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.260700000000001</v>
+        <v>-7.211699999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.509699999999995</v>
+        <v>-8.858199999999993</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.760399999999997</v>
+        <v>6.7205</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -771,13 +771,13 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.37399999999999</v>
+        <v>9.451799999999993</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.993399999999997</v>
+        <v>-7.973799999999992</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.120999999999997</v>
+        <v>-7.921899999999991</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,7 +811,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.681600000000002</v>
+        <v>-7.560300000000001</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.117999999999995</v>
+        <v>-7.214199999999997</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.287200000000001</v>
+        <v>6.339600000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,13 +924,13 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.068100000000004</v>
+        <v>5.067800000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.205199999999994</v>
+        <v>-7.318599999999998</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.271699999999993</v>
+        <v>7.530799999999995</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.668500000000003</v>
+        <v>-7.749700000000003</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.954099999999993</v>
+        <v>8.964499999999996</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-7.9184</v>
+        <v>-8.045700000000004</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.116300000000001</v>
+        <v>-8.279300000000001</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.633100000000005</v>
+        <v>-7.536400000000002</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.834100000000001</v>
+        <v>-7.806999999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1213,13 +1213,13 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.099399999999999</v>
+        <v>6.123399999999998</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.246499999999999</v>
+        <v>-8.238200000000001</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.124499999999996</v>
+        <v>-8.106999999999996</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1298,13 +1298,13 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.173100000000001</v>
+        <v>5.0429</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.443599999999999</v>
+        <v>-7.465699999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.1295</v>
+        <v>5.060700000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.237699999999995</v>
+        <v>5.487199999999994</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.600899999999999</v>
+        <v>4.657799999999997</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.472099999999999</v>
+        <v>5.6377</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1553,13 +1553,13 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.317299999999999</v>
+        <v>5.386599999999998</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.3334</v>
+        <v>-7.347800000000003</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.323499999999999</v>
+        <v>-6.4654</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.467300000000002</v>
+        <v>8.331600000000002</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.280999999999992</v>
+        <v>9.349599999999992</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.300400000000004</v>
+        <v>-6.358300000000003</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.767299999999999</v>
+        <v>-8.858299999999996</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1995,13 +1995,13 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.999499999999999</v>
+        <v>4.835299999999998</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.365499999999998</v>
+        <v>-6.411600000000001</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.601800000000001</v>
+        <v>-8.742900000000002</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.707799999999996</v>
+        <v>5.5641</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
